--- a/data/income_statement/2digits/size/55_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/55_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>55-Accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>55-Accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1466 +841,1656 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>414260.38132</v>
+        <v>517346.65052</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>443254.7459</v>
+        <v>566105.7105599999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>533627.71517</v>
+        <v>641503.0466900001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>552030.41281</v>
+        <v>692835.46146</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>647515.5402200001</v>
+        <v>823938.9671300001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>670048.7576499999</v>
+        <v>888245.0705800001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>740288.9130999999</v>
+        <v>1001426.92067</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>758487.4439300001</v>
+        <v>1082644.97635</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>924585.2748800002</v>
+        <v>1293804.99159</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1842567.49075</v>
+        <v>2295206.06962</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2301164.58202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2957734.83007</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2658210.788</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>392512.5909299999</v>
+        <v>481245.83542</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>420484.42766</v>
+        <v>528224.4667400001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>489601.84278</v>
+        <v>582112.2448</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>519548.48675</v>
+        <v>637165.7334400001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>601647.86116</v>
+        <v>756174.8677300002</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>640417.1779400001</v>
+        <v>832132.3189399999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>702759.56368</v>
+        <v>927127.2644700001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>702466.91064</v>
+        <v>980146.1219500001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>869577.7905600001</v>
+        <v>1192375.82477</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1722505.76911</v>
+        <v>2089238.59812</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2153467.62274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2668381.79195</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2377052.533</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>7665.61174</v>
+        <v>9030.832450000002</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>6898.266070000001</v>
+        <v>7542.08418</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>9729.371939999999</v>
+        <v>10273.21675</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>10525.97759</v>
+        <v>12644.93892</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>26876.50933</v>
+        <v>28003.24211</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9069.93066</v>
+        <v>10734.76989</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>8346.74899</v>
+        <v>9624.200060000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>18089.90367</v>
+        <v>19217.25885</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17785.38155</v>
+        <v>20450.75688</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>33927.91492</v>
+        <v>41017.18753</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>41747.05159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>49301.80280999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>61360.201</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>14082.17865</v>
+        <v>27069.98265</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15872.05217</v>
+        <v>30339.15964</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>34296.50045</v>
+        <v>49117.58514</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>21955.94847</v>
+        <v>43024.7891</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>18991.16973</v>
+        <v>39760.85729</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>20561.64905</v>
+        <v>45377.98175</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>29182.60043</v>
+        <v>64675.45614</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>37930.62962000001</v>
+        <v>83281.59555</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>37222.10277</v>
+        <v>80978.40994</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>86133.80671999999</v>
+        <v>164950.28397</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>105949.90769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>240051.23531</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>219798.054</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1350.58494</v>
+        <v>2979.73464</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1168.84673</v>
+        <v>2708.95868</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2478.37828</v>
+        <v>3741.98777</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1082.49684</v>
+        <v>1930.50225</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1039.83864</v>
+        <v>2047.33916</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3042.80238</v>
+        <v>4389.35438</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8929.925379999999</v>
+        <v>9853.350839999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6713.47183</v>
+        <v>9761.685750000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2947.67657</v>
+        <v>8454.7986</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>7000.100570000001</v>
+        <v>14090.16984</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4673.679450000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>32559.70482</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>72622.352</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1045.45233</v>
+        <v>2571.02864</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1113.44067</v>
+        <v>2634.77596</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1961.29356</v>
+        <v>2991.06134</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>977.2637100000001</v>
+        <v>1818.77345</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>861.3299000000001</v>
+        <v>1860.72564</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2679.01204</v>
+        <v>2927.84028</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8692.218969999998</v>
+        <v>9266.62952</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6343.20075</v>
+        <v>8677.020309999998</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2779.36552</v>
+        <v>7845.42833</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4946.7823</v>
+        <v>11781.60563</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4415.387180000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>31758.32846</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>32499.666</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>298.24207</v>
+        <v>401.16175</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>53.19947999999999</v>
+        <v>70.06989</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>27.5901</v>
+        <v>176.47187</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>99.22959999999999</v>
+        <v>105.3951</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>166.55146</v>
+        <v>170.97243</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>355.3981000000001</v>
+        <v>376.22604</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>96.60939</v>
+        <v>98.11381</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>334.03406</v>
+        <v>539.7025500000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>18.80105</v>
+        <v>418.87624</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>129.25087</v>
+        <v>314.79435</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>85.69278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>117.18786</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>36741.624</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6.89054</v>
+        <v>7.54425</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2.20658</v>
+        <v>4.11283</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>489.49462</v>
+        <v>574.45456</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6.00353</v>
+        <v>6.333699999999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>11.95728</v>
+        <v>15.64109</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8.392239999999999</v>
+        <v>1085.28806</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>141.09702</v>
+        <v>488.60751</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>36.23701999999999</v>
+        <v>544.96289</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>149.51</v>
+        <v>190.49403</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1924.0674</v>
+        <v>1993.76986</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>172.59949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>684.1885</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3381.062</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>412909.79638</v>
+        <v>514366.91588</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>442085.89917</v>
+        <v>563396.75188</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>531149.33689</v>
+        <v>637761.0589200001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>550947.91597</v>
+        <v>690904.9592099999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>646475.7015799999</v>
+        <v>821891.62797</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>667005.95527</v>
+        <v>883855.7161999999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>731358.9877199999</v>
+        <v>991573.5698299999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>751773.9721</v>
+        <v>1072883.2906</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>921637.59831</v>
+        <v>1285350.19299</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1835567.39018</v>
+        <v>2281115.89978</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2296490.90257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2925175.12525</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2585588.436</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>282138.64398</v>
+        <v>350509.54569</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>298639.05718</v>
+        <v>375623.21496</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>363569.1908200001</v>
+        <v>423027.30363</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>379321.68275</v>
+        <v>459306.02293</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>457400.45204</v>
+        <v>565575.96522</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>461328.42287</v>
+        <v>607986.3332699999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>521073.1626</v>
+        <v>679679.17352</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>563997.87298</v>
+        <v>800515.21851</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>665441.3860699999</v>
+        <v>918367.1153300001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1256320.68656</v>
+        <v>1515105.53447</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1617955.79263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1989682.14765</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1949525.678</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>17039.5148</v>
+        <v>22930.10919</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>14255.19157</v>
+        <v>19984.34632</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>14448.55052</v>
+        <v>17029.5577</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>15831.01342</v>
+        <v>20365.36588</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>15999.82751</v>
+        <v>18448.1523</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>15673.57065</v>
+        <v>19697.62306</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>21317.51623</v>
+        <v>27686.08242</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>27524.79116</v>
+        <v>37477.23922</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>20154.28716</v>
+        <v>31422.57452</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>48313.54992</v>
+        <v>62270.62402</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>88360.47590999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>118661.64507</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>113442.207</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>72079.37115000001</v>
+        <v>81095.81178</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>65942.27029</v>
+        <v>76240.73619999998</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>87130.91096999998</v>
+        <v>96993.67194</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>78860.04574000002</v>
+        <v>89430.90566999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>115712.35948</v>
+        <v>130050.84938</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>75311.799</v>
+        <v>90257.91231999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>76199.84855000001</v>
+        <v>92728.8878</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>85881.4237</v>
+        <v>111706.64623</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>121346.57413</v>
+        <v>140604.89407</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>253949.58874</v>
+        <v>299496.67073</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>311647.97905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>366559.02871</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>497898.045</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>192392.11894</v>
+        <v>245312.1837</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>217884.99397</v>
+        <v>277644.1570900001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>260024.49203</v>
+        <v>306679.45713</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>282773.59986</v>
+        <v>346562.83566</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>323496.61537</v>
+        <v>413888.09952</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>365200.8583900001</v>
+        <v>491632.82615</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>417979.42284</v>
+        <v>551336.4762499999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>440183.2138200001</v>
+        <v>638370.19814</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>518864.41477</v>
+        <v>734629.95857</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>942615.2350099999</v>
+        <v>1134850.61397</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1206392.97061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1484271.23407</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1299790.873</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>627.63909</v>
+        <v>1171.44102</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>556.6013500000001</v>
+        <v>1753.97535</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1965.2373</v>
+        <v>2324.616860000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1857.02373</v>
+        <v>2946.91572</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2191.64968</v>
+        <v>3188.86402</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>5142.19483</v>
+        <v>6397.97174</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5576.37498</v>
+        <v>7927.72705</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>10408.4443</v>
+        <v>12961.13492</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5076.110009999999</v>
+        <v>11709.68817</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11442.31289</v>
+        <v>18487.62575</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>11554.36706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20190.2398</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>38394.553</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>130771.1524</v>
+        <v>163857.37019</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>143446.84199</v>
+        <v>187773.53692</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>167580.14607</v>
+        <v>214733.75529</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>171626.23322</v>
+        <v>231598.93628</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>189075.24954</v>
+        <v>256315.66275</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>205677.5324</v>
+        <v>275869.38293</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>210285.82512</v>
+        <v>311894.39631</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>187776.09912</v>
+        <v>272368.07209</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>256196.21224</v>
+        <v>366983.07766</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>579246.70362</v>
+        <v>766010.36531</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>678535.1099400001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>935492.9776</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>636062.758</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>120521.47577</v>
+        <v>177494.11096</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>144077.52011</v>
+        <v>237030.85214</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>172723.2954</v>
+        <v>264412.4254</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>176216.35114</v>
+        <v>287108.34284</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>196357.42031</v>
+        <v>331498.58216</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>218994.91223</v>
+        <v>378445.6233200001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>246932.56528</v>
+        <v>431193.9754699999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>269971.12874</v>
+        <v>506684.44913</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>306702.86928</v>
+        <v>566364.74324</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>527467.32818</v>
+        <v>830492.7095499999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>644594.6079100001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1008654.33204</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1085670.642</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>99.42847</v>
+        <v>115.13902</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>106.92953</v>
+        <v>122.19538</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>181.41136</v>
+        <v>204.80979</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>318.62876</v>
+        <v>361.23212</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>95.35702000000001</v>
+        <v>96.83801000000001</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>140.2693</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>758.12093</v>
+        <v>773.78417</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>563.6119</v>
+        <v>1493.60885</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>212.5226</v>
+        <v>255.82372</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>411.97105</v>
+        <v>1433.40944</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>251.24114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1384.52353</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>205.508</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8908.110899999998</v>
+        <v>11573.31612</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>9583.7919</v>
+        <v>12341.55446</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>12082.74677</v>
+        <v>14911.09254</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>11551.42778</v>
+        <v>17688.51977</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>13893.5398</v>
+        <v>21648.25824</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>13840.19</v>
+        <v>22582.57606</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>18115.19411</v>
+        <v>25271.50317</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>19450.66657</v>
+        <v>29259.18293</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>22200.25028</v>
+        <v>32779.52709</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>39610.64536000001</v>
+        <v>52417.4835</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>58632.70445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>69976.87707999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>70923.52099999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>111513.9364</v>
+        <v>165805.65582</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>134386.79868</v>
+        <v>224567.1023</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>160459.13727</v>
+        <v>249296.52307</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>164346.2946</v>
+        <v>269058.59095</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>182368.5234900001</v>
+        <v>309753.48591</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>205014.45293</v>
+        <v>355722.77796</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>228059.2502400001</v>
+        <v>405148.68813</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>249956.85027</v>
+        <v>475931.6573500001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>284290.0964</v>
+        <v>533329.3924299999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>487444.7117699999</v>
+        <v>776641.81661</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>585710.66232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>937292.9314300001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1014541.613</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>10249.67663</v>
+        <v>-13636.74077</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-630.6781200000001</v>
+        <v>-49257.31522</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-5143.14933</v>
+        <v>-49678.67011</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-4590.11792</v>
+        <v>-55509.40656</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-7282.17077</v>
+        <v>-75182.91941</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-13317.37983</v>
+        <v>-102576.24039</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-36646.74015999999</v>
+        <v>-119299.57916</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-82195.02961999999</v>
+        <v>-234316.37704</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-50506.65704</v>
+        <v>-199381.66558</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>51779.37544</v>
+        <v>-64482.34424</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>33940.50203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-73161.35444</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-449607.884</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>7673.882949999999</v>
+        <v>56420.47419</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>8056.68142</v>
+        <v>83024.75559999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>10148.48443</v>
+        <v>132993.71484</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>10119.79419</v>
+        <v>166373.8496</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>10899.68732</v>
+        <v>206334.53617</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8549.42418</v>
+        <v>306342.95815</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>13961.00603</v>
+        <v>320223.23262</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>29950.51665</v>
+        <v>398002.9514</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>15372.1265</v>
+        <v>540581.7841</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>63278.58687</v>
+        <v>1244735.42458</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>53383.68203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>738970.1246999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>950956.7929999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>166.70256</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>347.17676</v>
+        <v>956.6226700000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>11.81241</v>
+        <v>964.82389</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>117.18642</v>
+        <v>1835.28193</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>73.9666</v>
+        <v>7988.21129</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>95</v>
+        <v>1554.33191</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>83.87447</v>
+        <v>1695.15264</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>360.88</v>
+        <v>54635.96186</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>14993.53289</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>257.31515</v>
+        <v>17422.21347</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>195.675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4740.079299999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>26671.033</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5.49487</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>0.17571</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1.03783</v>
+        <v>2005.4988</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>36435.58931</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0.00118</v>
+        <v>0.75118</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>33.55768</v>
+        <v>3129.15601</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>19146.71947</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>452.42697</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>64124.71141</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>2985.04599</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>16977.21019</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>3583.453</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>973.8864699999999</v>
+        <v>7475.27525</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>807.46158</v>
+        <v>8886.64669</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>920.76214</v>
+        <v>15529.86065</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1027.43599</v>
+        <v>33133.72164</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1198.39885</v>
+        <v>32338.4738</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1596.75748</v>
+        <v>33961.06808</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1699.40504</v>
+        <v>35336.72527</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4897.47142</v>
+        <v>42775.27821</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1758.42132</v>
+        <v>68165.0591</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9382.555</v>
+        <v>82109.80017999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>8781.755230000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>95569.5033</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>104070.185</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>358.71124</v>
+        <v>997.5442399999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>323.4962</v>
+        <v>698.88481</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>468.7545600000001</v>
+        <v>470.59973</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>330.12409</v>
+        <v>348.76397</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>387.10115</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>258.63959</v>
+        <v>486.49337</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>410.7374</v>
+        <v>727.9383</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>341.32928</v>
+        <v>489.9901100000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>177.60713</v>
+        <v>372.30961</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>842.1145299999999</v>
+        <v>842.4250500000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1361.67818</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1415.85368</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>778.393</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>151.50477</v>
+        <v>152.38397</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>383.27609</v>
+        <v>541.44388</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>51.08782</v>
+        <v>301.86931</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>21.34705</v>
+        <v>627.13839</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>75.96498</v>
+        <v>444.78255</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>350.94226</v>
+        <v>472.99073</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>98.05153999999999</v>
+        <v>434.77533</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>268.89781</v>
+        <v>500.68405</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>7.393479999999999</v>
+        <v>2205.35602</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>269.37247</v>
+        <v>1765.65577</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>87.38590000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>106.61075</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3690.085</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>157.71651</v>
+        <v>725.2501</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>106.43403</v>
+        <v>236.45388</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>38.89458999999999</v>
+        <v>213.04997</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>98.28722999999999</v>
+        <v>1378.93271</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>85.66047</v>
+        <v>287.20321</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>183.84675</v>
+        <v>108334.76461</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>177.31812</v>
+        <v>473.5625899999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>354.17032</v>
+        <v>10751.79429</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>219.09284</v>
+        <v>27536.94291</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>328.00964</v>
+        <v>3820.68292</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3906.24865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8204.736510000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>13483.195</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1391.44166</v>
+        <v>17835.36369</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1993.05485</v>
+        <v>41023.77968000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2696.06595</v>
+        <v>81368.15651999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1288.7682</v>
+        <v>54610.25729</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2636.60978</v>
+        <v>83164.07583</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1607.94176</v>
+        <v>110623.67238</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5109.78697</v>
+        <v>170457.481</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>16989.10235</v>
+        <v>201844.42229</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4868.974</v>
+        <v>237881.2861</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>34787.87231</v>
+        <v>885323.7969099999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>17430.34838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>394898.22357</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>550261.4889999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>125.91759</v>
+        <v>302.11291</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.25326</v>
+        <v>61.96758000000001</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>87.11304</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>16.12</v>
+        <v>1502.61497</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>3137.42948</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>35.19305</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>7.59795</v>
+        <v>106.2782</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>5.4</v>
+        <v>306.3347199999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>101.46413</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>108.93759</v>
+        <v>235.8553</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>112.43575</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>161.49003</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>446.714</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>121.83257</v>
+        <v>123.24665</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>143.60395</v>
+        <v>147.37973</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>26.42085</v>
+        <v>49.0079</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>73.12944999999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>53.07602</v>
+        <v>232.35579</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>12.14353</v>
+        <v>219.062</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>18.62184</v>
+        <v>118.14821</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>208.98767</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>29.30547</v>
+        <v>67.11829</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>121.42487</v>
+        <v>1222.21571</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>185.15556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>287.15556</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>170.704</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>4387.37727</v>
+        <v>28637.09995</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3951.9247</v>
+        <v>30471.40097</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5846.53524</v>
+        <v>32003.73503</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>7147.395759999999</v>
+        <v>36428.41994</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>6388.908290000001</v>
+        <v>78354.15188999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4375.40208</v>
+        <v>47526.22601</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6355.612700000001</v>
+        <v>91726.45161</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6733.26547</v>
+        <v>86037.07122999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8311.332259999999</v>
+        <v>125134.00364</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>17180.98531</v>
+        <v>249007.73328</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>21322.99938</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>216609.26181</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>247801.542</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3014.28432</v>
+        <v>23834.20205</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3505.96057</v>
+        <v>34455.36401</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5233.55783</v>
+        <v>113307.91071</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5089.949360000001</v>
+        <v>53447.71613</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10220.23988</v>
+        <v>156363.78414</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5446.43646</v>
+        <v>182570.05218</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8110.77257</v>
+        <v>313912.7850800001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>20723.54895</v>
+        <v>308601.0537500001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10233.71035</v>
+        <v>357845.60332</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>51079.40671</v>
+        <v>1284177.45992</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>35823.16139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>549444.1185799999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1202331.645</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>188.05315</v>
+        <v>276.81287</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>422.07405</v>
+        <v>813.23721</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>795.6633700000001</v>
+        <v>1386.81944</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1087.86967</v>
+        <v>2167.81192</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1119.31251</v>
+        <v>1753.74859</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1668.99936</v>
+        <v>2154.60431</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1612.40705</v>
+        <v>2178.49759</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1473.68021</v>
+        <v>2173.21677</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>936.7095</v>
+        <v>1492.29471</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4528.46987</v>
+        <v>4790.60632</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5598.38391</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6358.57963</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6606.51</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>241.61174</v>
+        <v>825.8974300000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>191.24124</v>
+        <v>517.24284</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>60.09967</v>
+        <v>14902.49135</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>906.60708</v>
+        <v>1891.34984</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>433.9498</v>
+        <v>1202.17909</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>582.5108200000001</v>
+        <v>719.8187800000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1156.66072</v>
+        <v>2540.21674</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>650.59201</v>
+        <v>2912.81376</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>762.8920899999999</v>
+        <v>2794.47237</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>239.94893</v>
+        <v>21906.96096</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2384.24172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5563.6813</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>15706.379</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>17.66096</v>
+        <v>18.1536</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>60.86633</v>
+        <v>116.90567</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>54.04058</v>
+        <v>86.27757000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>21.159</v>
+        <v>2118.96</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>4238.999620000001</v>
+        <v>4271.2266</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>39.97354</v>
+        <v>10428.61264</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4.1122</v>
+        <v>80.71585</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>10.5201</v>
+        <v>126.60076</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>7.43588</v>
+        <v>1108.94801</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>126.57015</v>
+        <v>2031.32691</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>38.32646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>9407.555639999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>38470.669</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1560.52163</v>
+        <v>19818.64007</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1688.60967</v>
+        <v>23432.87305</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2371.69536</v>
+        <v>89432.64189999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1182.86303</v>
+        <v>40468.40084</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2684.36074</v>
+        <v>135258.42259</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1701.24193</v>
+        <v>162619.37627</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3384.71917</v>
+        <v>297009.65198</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>17070.47962</v>
+        <v>291454.50196</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6028.28504</v>
+        <v>330978.42949</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>42960.07436</v>
+        <v>1239653.75999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>23106.38577000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>458385.18454</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1103155.275</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>8.202059999999999</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>10</v>
+        <v>11.09247</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>5.999999999999999e-05</v>
+        <v>2612.82481</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0.23001</v>
+        <v>76.56696000000001</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>16.52944</v>
+        <v>49.21568</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0.0262</v>
+        <v>12.4825</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>289.34971</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.7182500000000001</v>
+        <v>42.66694</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>31.12305</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1.4953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>132.21069</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>435.707</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>18.51739</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>78.59122000000001</v>
+        <v>78.59134</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>66.16414999999999</v>
+        <v>66.16419</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>102.99759</v>
@@ -2408,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>13.73776</v>
+        <v>14.57597</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>58.00362000000001</v>
+        <v>148.95828</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>35.34743</v>
@@ -2420,598 +2511,676 @@
         <v>7.000000000000001e-05</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>0.18526</v>
+        <v>203.39858</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>128.74386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>233.74386</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0.738</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>979.7173900000001</v>
+        <v>2867.978630000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1054.57806</v>
+        <v>9485.42143</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1885.89464</v>
+        <v>4820.691449999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1788.22298</v>
+        <v>6621.62898</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1743.61721</v>
+        <v>13878.20727</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1423.44361</v>
+        <v>6583.84853</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1894.84361</v>
+        <v>11942.26214</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1482.92958</v>
+        <v>11609.22336</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2497.66952</v>
+        <v>21428.79173</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3193.03509</v>
+        <v>15560.28411</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4565.58437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>69363.16292</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>37956.367</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6990.3418</v>
+        <v>26191.60566</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6199.611900000001</v>
+        <v>21684.70382</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7457.45341</v>
+        <v>53699.48588</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>8740.549489999999</v>
+        <v>55920.56759000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7922.541230000001</v>
+        <v>154580.59992</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>8400.947539999999</v>
+        <v>139169.99641</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9882.073030000001</v>
+        <v>257443.24763</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19954.12714</v>
+        <v>326927.70592</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>14172.05008</v>
+        <v>290057.13507</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>44995.53389</v>
+        <v>754449.69956</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>62111.78307999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>319630.91616</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>436751.594</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>6601.61139</v>
+        <v>22858.90999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5928.458439999999</v>
+        <v>18935.6784</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6702.90307</v>
+        <v>42378.36879</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>8020.11884</v>
+        <v>47363.92455</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7153.09407</v>
+        <v>58961.86291</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>7758.05263</v>
+        <v>79922.05581000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9267.39697</v>
+        <v>101141.66746</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>19007.84005</v>
+        <v>154076.1819</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>13287.42759</v>
+        <v>174370.91844</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>42334.77069999999</v>
+        <v>314023.59471</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>58747.99883999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>238616.57549</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>298165.811</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>388.73041</v>
+        <v>3332.695670000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>271.1534599999999</v>
+        <v>2749.02542</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>754.55034</v>
+        <v>11321.11709</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>720.43065</v>
+        <v>8556.643039999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>769.4471599999999</v>
+        <v>95618.73701000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>642.89491</v>
+        <v>59247.9406</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>614.6760599999999</v>
+        <v>156301.58017</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>946.2870899999999</v>
+        <v>172851.52402</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>884.6224900000001</v>
+        <v>115686.21663</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2660.763190000001</v>
+        <v>440426.10485</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3363.78424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>81014.34067000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>138585.783</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>7918.93346</v>
+        <v>-7242.07429</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2279.56917</v>
+        <v>-22372.62745</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-7685.67614</v>
+        <v>-83692.35186000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-8300.82258</v>
+        <v>1496.159319999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-14525.26456</v>
+        <v>-179792.7673</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-18615.33965</v>
+        <v>-117973.33083</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-40678.57973</v>
+        <v>-370432.37925</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-92922.18905999999</v>
+        <v>-471842.18531</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-59540.29097</v>
+        <v>-306702.61987</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>18983.02171</v>
+        <v>-858374.0791399999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-10610.76041</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-203266.26448</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1137734.33</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15677.82227</v>
+        <v>56628.11440999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>5767.33755</v>
+        <v>37508.04992999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5951.285339999999</v>
+        <v>19301.05581</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8974.95458</v>
+        <v>48097.09343</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9597.103620000002</v>
+        <v>45682.66657</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>8201.769260000001</v>
+        <v>100313.29885</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>8651.154500000001</v>
+        <v>102019.88242</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>17754.11809</v>
+        <v>172345.70319</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>16413.42714</v>
+        <v>112139.62802</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>41338.98951</v>
+        <v>241979.8893</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>43441.97486</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>198030.81074</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>176917.761</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>342.85261</v>
+        <v>435.2906600000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>105.25511</v>
+        <v>214.03009</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>142.21095</v>
+        <v>453.83671</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5.9882</v>
+        <v>428.47982</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>106.44784</v>
+        <v>119.51048</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>88.93214</v>
+        <v>139.262</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>143.98657</v>
+        <v>1328.68516</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>23.57141</v>
+        <v>584.0500999999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>145.91549</v>
+        <v>2168.29541</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6008.58467</v>
+        <v>15245.27805</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>378.74896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1023.67122</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1998.459</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15334.96966</v>
+        <v>56192.82375</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5662.08244</v>
+        <v>37294.01984</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5809.07439</v>
+        <v>18847.2191</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8968.96638</v>
+        <v>47668.61361</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9490.655779999999</v>
+        <v>45563.15609</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>8112.83712</v>
+        <v>100174.03685</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8507.16793</v>
+        <v>100691.19726</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>17730.54668</v>
+        <v>171761.65309</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>16267.51165</v>
+        <v>109971.33261</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>35330.40484</v>
+        <v>226734.61125</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>43063.2259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>197007.13952</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>174919.302</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18733.19206</v>
+        <v>30942.37103</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11131.63202</v>
+        <v>32930.67878</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>63662.83284</v>
+        <v>140654.16545</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>13684.29279</v>
+        <v>34716.4748</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15084.49126</v>
+        <v>39308.91903</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>26654.61917</v>
+        <v>131322.54344</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18096.70585</v>
+        <v>69198.50133</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>39377.55958</v>
+        <v>136574.38772</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>16969.14776</v>
+        <v>72878.83600999998</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>71777.14361</v>
+        <v>264192.08535</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>32409.02677</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>197095.41646</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>225977.881</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>475.34954</v>
+        <v>1588.08592</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>598.0955300000002</v>
+        <v>6744.10946</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>478.34287</v>
+        <v>673.8009</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>639.18983</v>
+        <v>1502.56052</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>5329.10372</v>
+        <v>6005.13192</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>857.5503299999999</v>
+        <v>5077.768580000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>679.88292</v>
+        <v>5935.89377</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1045.16985</v>
+        <v>4002.34215</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>762.22522</v>
+        <v>1615.12492</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>802.43217</v>
+        <v>1385.57233</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1555.42636</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2607.25454</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3306.95</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1972.5937</v>
+        <v>2477.01205</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3195.48352</v>
+        <v>4874.22919</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1604.64269</v>
+        <v>1901.04792</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1205.50245</v>
+        <v>1806.38235</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2091.73309</v>
+        <v>3791.08466</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1043.18814</v>
+        <v>2149.81158</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1123.56403</v>
+        <v>10495.09459</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1216.76553</v>
+        <v>5425.19286</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1031.21812</v>
+        <v>2512.44852</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2985.71912</v>
+        <v>20573.30552</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2080.4039</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2801.6772</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>16654.761</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16285.24882</v>
+        <v>26877.27306</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7338.05297</v>
+        <v>21312.34013</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>61579.84728</v>
+        <v>138079.31663</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>11839.60051</v>
+        <v>31407.53193</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7663.65445</v>
+        <v>29512.70245</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>24753.8807</v>
+        <v>124094.96328</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16293.2589</v>
+        <v>52767.51297</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>37115.62420000001</v>
+        <v>127146.85271</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>15175.70442</v>
+        <v>68751.26256999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>67988.99232</v>
+        <v>242233.2075</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>28773.19651</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>191686.48472</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>206016.17</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4863.563670000001</v>
+        <v>18443.66909</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-7643.86364</v>
+        <v>-17795.2563</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-65397.22364</v>
+        <v>-205045.4615</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-13010.16079</v>
+        <v>14876.77795</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-20012.6522</v>
+        <v>-173419.01976</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-37068.18956</v>
+        <v>-148982.57542</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-50124.13108</v>
+        <v>-337610.99816</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-114545.63055</v>
+        <v>-436070.8698400001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-60096.01158999999</v>
+        <v>-267441.82786</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-11455.13239</v>
+        <v>-880586.27519</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>422.1876799999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-202330.8702</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1186794.45</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4863.10621</v>
+        <v>9600.92175</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4823.58677</v>
+        <v>9503.23882</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6342.22003</v>
+        <v>12559.26837</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6567.60075</v>
+        <v>13677.47466</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7067.105460000001</v>
+        <v>17509.2368</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7435.302960000001</v>
+        <v>17446.24952</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6977.940399999999</v>
+        <v>22903.45806</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5716.340630000001</v>
+        <v>23228.99698</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>6627.290019999999</v>
+        <v>29746.20914</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>25448.45745</v>
+        <v>71950.29719</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>31912.69116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>64034.31506</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>63034.847</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>0.4574599999999627</v>
+        <v>8842.74734</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-12467.45041</v>
+        <v>-27298.49512</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-71739.44367000001</v>
+        <v>-217604.72987</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-19577.76154</v>
+        <v>1199.303290000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-27079.75766</v>
+        <v>-190928.25656</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-44503.49252</v>
+        <v>-166428.82494</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-57102.07148000001</v>
+        <v>-360514.45622</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-120261.97118</v>
+        <v>-459299.86682</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-66723.30160999999</v>
+        <v>-297188.037</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-36903.58984</v>
+        <v>-952536.57238</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-31490.50348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-266365.18526</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1249829.297</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3319</v>
+        <v>3821</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3454</v>
+        <v>4084</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3606</v>
+        <v>4230</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3720</v>
+        <v>4473</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3927</v>
+        <v>4854</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4046</v>
+        <v>5117</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4156</v>
+        <v>5380</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4415</v>
+        <v>5934</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4796</v>
+        <v>6348</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5842</v>
+        <v>6971</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7718</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>